--- a/biology/Zoologie/The_Cheese_Mites/The_Cheese_Mites.xlsx
+++ b/biology/Zoologie/The_Cheese_Mites/The_Cheese_Mites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Cheese Mites (« Les Acariens du fromage ») est un court métrage documentaire muet britannique de 1903, produit par Charles Urban et réalisé par F. Martin Duncan.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un homme déjeune d'un sandwich au fromage de Stilton tout en lisant son journal, à l'aide de sa loupe. Il se rend compte qu'il se passe quelque chose d'étrange sur la surface du fromage qu'il se met à examiner avec sa loupe. Il découvre alors avec horreur que des centaines d'acariens du fromage ressemblant à des petits crabes grouillent et se déplacent rapidement dans toutes les directions. Dégoûté, il interrompt son déjeuner et quitte la table.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titre original : The Cheese Mites
@@ -586,9 +602,11 @@
           <t>Sortie du film</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film, présenté au public en août 1903 à l'Alhambra Theatre, Leicester Square, à Londres, est la sensation de cette première projection de films scientifiques en Grande-Bretagne. Selon Michael Brooke de BFI Screenonline, « sa revendication scientifique repose sur le fait qu'il est filmé à travers un microscope, révélant aux public profane ce qui, normalement, n'est accessible qu'aux propriétaires de microscopes »[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film, présenté au public en août 1903 à l'Alhambra Theatre, Leicester Square, à Londres, est la sensation de cette première projection de films scientifiques en Grande-Bretagne. Selon Michael Brooke de BFI Screenonline, « sa revendication scientifique repose sur le fait qu'il est filmé à travers un microscope, révélant aux public profane ce qui, normalement, n'est accessible qu'aux propriétaires de microscopes »,.
 </t>
         </is>
       </c>
@@ -617,7 +635,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après le British Film Institute, pendant 80 ans, seules ne subsistaient 49 secondes du film montrant le plan des acariens, le restant étant considéré comme perdu, mais une nouvelle version a été découverte dans les années 2000 montrant 2 minutes et 30 secondes.
 Il existe une parodie de ce film, également sortie dans les années 1900, nommée « Unclean World ».
